--- a/热水器项目 CAN方案.xlsx
+++ b/热水器项目 CAN方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="274">
   <si>
     <t>起始帧</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1057,6 +1057,22 @@
   </si>
   <si>
     <t>0x0800 FC00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip.dst==123.57.150.25 or ip.src == 123.57.150.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip.dst==192.168.1.102 or ip.src == 192.168.1.102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.106.113.254</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip.dst==39.106.113.254 or ip.src == 39.106.113.254</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1276,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1351,6 +1367,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1673,7 +1691,7 @@
   <dimension ref="B2:AF107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2509,12 +2527,12 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
@@ -2547,12 +2565,12 @@
       <c r="O20" t="s">
         <v>242</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
@@ -2569,14 +2587,14 @@
       <c r="O21" t="s">
         <v>243</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="P21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38" t="s">
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="S21" s="38"/>
+      <c r="S21" s="40"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B22" s="21" t="s">
@@ -2857,12 +2875,12 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
@@ -2988,6 +3006,9 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
+      <c r="P31" t="s">
+        <v>270</v>
+      </c>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
@@ -2996,6 +3017,9 @@
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
+      <c r="P32" s="35" t="s">
+        <v>271</v>
+      </c>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
@@ -3004,6 +3028,9 @@
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
+      <c r="P33" t="s">
+        <v>272</v>
+      </c>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
@@ -3012,6 +3039,9 @@
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B34" s="1"/>
+      <c r="P34" s="36" t="s">
+        <v>273</v>
+      </c>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
@@ -3019,12 +3049,12 @@
       <c r="AC34" s="20"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
@@ -3233,7 +3263,7 @@
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B50" s="36"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="5">
         <v>0</v>
       </c>
@@ -3280,7 +3310,7 @@
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B51" s="37"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="4" t="s">
         <v>0</v>
       </c>

--- a/热水器项目 CAN方案.xlsx
+++ b/热水器项目 CAN方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="277">
   <si>
     <t>起始帧</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1073,6 +1073,17 @@
   </si>
   <si>
     <t>ip.dst==39.106.113.254 or ip.src == 39.106.113.254</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦出APP储存扇区数据</t>
+  </si>
+  <si>
+    <t>以多字节形式写数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以多字节形式读数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1292,7 +1303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1367,6 +1378,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1690,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AF107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="M14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2527,12 +2539,12 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
@@ -2565,12 +2577,12 @@
       <c r="O20" t="s">
         <v>242</v>
       </c>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
@@ -2587,14 +2599,14 @@
       <c r="O21" t="s">
         <v>243</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40" t="s">
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="S21" s="40"/>
+      <c r="S21" s="41"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B22" s="21" t="s">
@@ -2875,12 +2887,12 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
@@ -3049,12 +3061,12 @@
       <c r="AC34" s="20"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
@@ -3072,6 +3084,9 @@
       <c r="K36" t="s">
         <v>46</v>
       </c>
+      <c r="Y36" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
@@ -3125,6 +3140,9 @@
       <c r="R37" s="2">
         <v>15</v>
       </c>
+      <c r="Y37" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
@@ -3175,6 +3193,9 @@
       <c r="R38" s="16" t="s">
         <v>139</v>
       </c>
+      <c r="Y38" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
@@ -3263,7 +3284,7 @@
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B50" s="38"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="5">
         <v>0</v>
       </c>
@@ -3310,7 +3331,7 @@
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B51" s="39"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="4" t="s">
         <v>0</v>
       </c>

--- a/热水器项目 CAN方案.xlsx
+++ b/热水器项目 CAN方案.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="274">
   <si>
     <t>起始帧</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -547,10 +547,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>存放逻辑地址为25的物理地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通信码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -603,27 +599,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>存放逻辑地址为26的物理地址</t>
-  </si>
-  <si>
-    <t>存放逻辑地址为27的物理地址</t>
-  </si>
-  <si>
-    <t>存放逻辑地址为28的物理地址</t>
-  </si>
-  <si>
-    <t>存放逻辑地址为29的物理地址</t>
-  </si>
-  <si>
     <t>存放逻辑地址为30的物理地址</t>
   </si>
   <si>
-    <t>存放逻辑地址为31的物理地址</t>
-  </si>
-  <si>
-    <t>存放逻辑地址为32的物理地址</t>
-  </si>
-  <si>
     <t>状态标志</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1084,14 +1062,30 @@
   </si>
   <si>
     <t>以多字节形式读数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放逻辑地址为80的物理地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放逻辑地址为70的物理地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放逻辑地址为60的物理地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,7 +1297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1383,6 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1456,7 +1451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1488,10 +1483,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1523,7 +1517,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1699,28 +1692,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AF107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AF107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="20.25" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="10.25" customWidth="1"/>
-    <col min="19" max="19" width="7.375" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="20.26953125" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="10.26953125" customWidth="1"/>
+    <col min="19" max="19" width="7.36328125" customWidth="1"/>
+    <col min="20" max="20" width="7.6328125" customWidth="1"/>
     <col min="21" max="21" width="7" customWidth="1"/>
-    <col min="22" max="22" width="8.125" customWidth="1"/>
+    <col min="22" max="22" width="8.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:32">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
@@ -1754,7 +1747,7 @@
       </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
@@ -1777,7 +1770,7 @@
       <c r="AD2" s="25"/>
       <c r="AE2" s="25"/>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:32">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -1857,7 +1850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:32">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1877,13 +1870,13 @@
       <c r="L4" s="4"/>
       <c r="O4" s="25"/>
       <c r="P4" s="32" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="S4" s="28" t="s">
         <v>87</v>
@@ -1922,10 +1915,10 @@
         <v>41</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32">
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1934,38 +1927,38 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="P5" s="32" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:32">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1974,25 +1967,25 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="P6" s="32" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="32" t="s">
         <v>53</v>
@@ -2005,36 +1998,36 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:32">
       <c r="B7" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="P7" s="32" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="32" t="s">
         <v>56</v>
@@ -2047,57 +2040,57 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:32">
       <c r="B8" s="21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L8" s="4"/>
       <c r="P8" s="32" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="32" t="s">
         <v>52</v>
       </c>
       <c r="R8" s="32"/>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:32">
       <c r="B9" s="21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2106,7 +2099,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:32">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2119,10 +2112,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="P10" s="30" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="R10" s="31">
         <v>0</v>
@@ -2170,7 +2163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:32">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2183,10 +2176,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="P11" s="30" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="30" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="R11" s="32" t="s">
         <v>33</v>
@@ -2228,42 +2221,42 @@
         <v>41</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="P12" s="30" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2271,25 +2264,25 @@
         <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="P13" s="30" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="30" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -2306,7 +2299,7 @@
       <c r="AD13" s="26"/>
       <c r="AE13" s="26"/>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:32">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -2335,10 +2328,10 @@
       </c>
       <c r="L14" s="4"/>
       <c r="P14" s="30" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -2355,7 +2348,7 @@
       <c r="AD14" s="26"/>
       <c r="AE14" s="26"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:32">
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2374,10 +2367,10 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="P15" s="30" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="R15" s="33"/>
       <c r="S15" s="33"/>
@@ -2394,7 +2387,7 @@
       <c r="AD15" s="26"/>
       <c r="AE15" s="26"/>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:32">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -2429,13 +2422,13 @@
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:31">
       <c r="B17" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
@@ -2450,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2470,13 +2463,13 @@
       <c r="AD17" s="26"/>
       <c r="AE17" s="26"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:31">
       <c r="B18" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>7</v>
@@ -2513,13 +2506,13 @@
       <c r="AD18" s="26"/>
       <c r="AE18" s="26"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:31">
       <c r="B19" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>18</v>
@@ -2539,20 +2532,20 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+    </row>
+    <row r="20" spans="2:31">
       <c r="B20" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>18</v>
@@ -2575,16 +2568,16 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="O20" t="s">
-        <v>242</v>
-      </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+    </row>
+    <row r="21" spans="2:31">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2597,20 +2590,20 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="O21" t="s">
-        <v>243</v>
-      </c>
-      <c r="P21" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="S21" s="41"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="S21" s="42"/>
+    </row>
+    <row r="22" spans="2:31">
       <c r="B22" s="21" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
@@ -2632,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -2685,9 +2678,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:31">
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
@@ -2709,68 +2702,68 @@
         <v>7</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L23" s="4"/>
       <c r="P23" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="S23" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="T23" t="s">
+        <v>260</v>
+      </c>
+      <c r="U23" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="V23" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="W23" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="X23" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="Q23" s="34" t="s">
+      <c r="Y23" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="R23" s="34" t="s">
+      <c r="Z23" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="S23" s="34" t="s">
+      <c r="AA23" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="T23" t="s">
-        <v>267</v>
-      </c>
-      <c r="U23" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="V23" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="W23" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="X23" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y23" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z23" s="33" t="s">
+      <c r="AB23" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="AA23" s="33" t="s">
+      <c r="AC23" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="AB23" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC23" s="33" t="s">
-        <v>262</v>
-      </c>
       <c r="AD23" s="33" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AE23" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31">
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -2793,67 +2786,67 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="P24" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q24" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="T24" t="s">
+        <v>261</v>
+      </c>
+      <c r="U24" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="V24" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="W24" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="X24" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z24" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA24" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB24" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="Q24" s="34" t="s">
+      <c r="AC24" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="R24" s="34" t="s">
+      <c r="AD24" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE24" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="S24" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="T24" t="s">
-        <v>268</v>
-      </c>
-      <c r="U24" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="V24" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="W24" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="X24" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y24" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z24" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA24" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB24" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC24" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD24" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE24" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:31">
       <c r="B25" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2867,7 +2860,7 @@
       <c r="V25" s="33"/>
       <c r="W25" s="33"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:31">
       <c r="B26" s="8" t="s">
         <v>31</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2887,14 +2880,14 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+    </row>
+    <row r="27" spans="2:31">
       <c r="B27" s="8"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2907,7 +2900,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:31">
       <c r="B28" s="24" t="s">
         <v>113</v>
       </c>
@@ -2934,7 +2927,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:31">
       <c r="B29" s="8" t="s">
         <v>112</v>
       </c>
@@ -2961,7 +2954,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:31">
       <c r="B30" s="24" t="s">
         <v>114</v>
       </c>
@@ -2973,24 +2966,24 @@
         <v>7</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:31">
       <c r="B31" s="8" t="s">
         <v>111</v>
       </c>
@@ -3002,24 +2995,24 @@
         <v>7</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
@@ -3027,10 +3020,10 @@
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:31">
       <c r="B32" s="1"/>
       <c r="P32" s="35" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
@@ -3038,10 +3031,10 @@
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:29">
       <c r="B33" s="1"/>
       <c r="P33" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
@@ -3049,10 +3042,10 @@
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:29">
       <c r="B34" s="1"/>
       <c r="P34" s="36" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
@@ -3060,15 +3053,15 @@
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:29">
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+    </row>
+    <row r="36" spans="2:29">
       <c r="B36" t="s">
         <v>32</v>
       </c>
@@ -3085,10 +3078,10 @@
         <v>46</v>
       </c>
       <c r="Y36" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3141,10 +3134,10 @@
         <v>15</v>
       </c>
       <c r="Y37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
       <c r="C38" t="s">
         <v>45</v>
       </c>
@@ -3191,28 +3184,28 @@
         <v>41</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
       <c r="C39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:29">
       <c r="C40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:29">
       <c r="D41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:29">
       <c r="B42" t="s">
         <v>51</v>
       </c>
@@ -3220,7 +3213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:29">
       <c r="B43" t="s">
         <v>47</v>
       </c>
@@ -3228,17 +3221,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:29">
       <c r="E44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:29">
       <c r="E45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:29">
       <c r="C46" t="s">
         <v>118</v>
       </c>
@@ -3273,18 +3266,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:29">
       <c r="D47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:29">
       <c r="D48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B50" s="39"/>
+    <row r="50" spans="2:21">
+      <c r="B50" s="40"/>
       <c r="C50" s="5">
         <v>0</v>
       </c>
@@ -3330,8 +3323,8 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B51" s="40"/>
+    <row r="51" spans="2:21">
+      <c r="B51" s="41"/>
       <c r="C51" s="4" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +3370,7 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:21">
       <c r="B52" s="4" t="s">
         <v>57</v>
       </c>
@@ -3426,7 +3419,7 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:21">
       <c r="B53" s="8" t="s">
         <v>61</v>
       </c>
@@ -3481,7 +3474,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:21">
       <c r="B54" s="4" t="s">
         <v>85</v>
       </c>
@@ -3530,7 +3523,7 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:21">
       <c r="B55" s="8" t="s">
         <v>68</v>
       </c>
@@ -3579,7 +3572,7 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:21">
       <c r="B56" s="4" t="s">
         <v>86</v>
       </c>
@@ -3628,7 +3621,7 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:21">
       <c r="B57" s="8" t="s">
         <v>70</v>
       </c>
@@ -3677,7 +3670,7 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:21">
       <c r="B64" t="s">
         <v>32</v>
       </c>
@@ -3694,7 +3687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:19">
       <c r="B65" s="13" t="s">
         <v>44</v>
       </c>
@@ -3748,7 +3741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:19">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -3799,7 +3792,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:19">
       <c r="C67" t="s">
         <v>99</v>
       </c>
@@ -3807,7 +3800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:19">
       <c r="C68" t="s">
         <v>98</v>
       </c>
@@ -3815,12 +3808,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:19">
       <c r="B72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:19">
       <c r="B73" s="4" t="s">
         <v>103</v>
       </c>
@@ -3874,10 +3867,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:19">
       <c r="B74" s="4"/>
       <c r="C74" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>115</v>
@@ -3889,34 +3882,34 @@
         <v>105</v>
       </c>
       <c r="G74" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="H74" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>146</v>
-      </c>
       <c r="J74" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P74" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="17" t="s">
@@ -3930,337 +3923,586 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
       <c r="H76" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="P76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
       <c r="H77" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
+      <c r="H78" t="s">
+        <v>155</v>
+      </c>
+      <c r="I78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
+      <c r="H79" t="s">
+        <v>157</v>
+      </c>
+      <c r="I79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1023</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4">
+        <v>900</v>
+      </c>
+      <c r="D83" s="4">
+        <v>901</v>
+      </c>
+      <c r="E83" s="4">
+        <v>902</v>
+      </c>
+      <c r="F83" s="4">
+        <v>903</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4">
+        <v>904</v>
+      </c>
+      <c r="D84" s="4">
+        <v>905</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4">
+        <v>906</v>
+      </c>
+      <c r="D85" s="4">
+        <v>907</v>
+      </c>
+      <c r="E85" s="4">
+        <v>908</v>
+      </c>
+      <c r="F85" s="4">
+        <v>909</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4">
+        <v>910</v>
+      </c>
+      <c r="D86" s="4">
+        <v>-925</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4">
+        <v>930</v>
+      </c>
+      <c r="D87" s="4">
+        <v>931</v>
+      </c>
+      <c r="E87" s="4">
+        <v>932</v>
+      </c>
+      <c r="F87" s="4">
+        <v>933</v>
+      </c>
+      <c r="G87" s="4">
+        <v>934</v>
+      </c>
+      <c r="H87" s="4">
+        <v>935</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4">
+        <v>936</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4">
+        <v>939</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4">
+        <v>940</v>
+      </c>
+      <c r="D90" s="4">
+        <v>941</v>
+      </c>
+      <c r="E90" s="4">
+        <v>942</v>
+      </c>
+      <c r="F90" s="4">
+        <v>943</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4">
+        <v>944</v>
+      </c>
+      <c r="D91" s="4">
+        <v>945</v>
+      </c>
+      <c r="E91" s="4">
+        <v>946</v>
+      </c>
+      <c r="F91" s="4">
+        <v>947</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4">
+        <v>948</v>
+      </c>
+      <c r="D92" s="4">
+        <v>949</v>
+      </c>
+      <c r="E92" s="4">
+        <v>950</v>
+      </c>
+      <c r="F92" s="4">
+        <v>951</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4">
+        <v>10</v>
+      </c>
+      <c r="D94" s="4">
+        <v>14</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4">
+        <v>2</v>
+      </c>
+      <c r="C95" s="4">
+        <v>15</v>
+      </c>
+      <c r="D95" s="4">
+        <v>19</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4">
+        <v>3</v>
+      </c>
+      <c r="C96" s="4">
+        <v>20</v>
+      </c>
+      <c r="D96" s="4">
+        <v>24</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4">
+        <v>30</v>
+      </c>
+      <c r="C98" s="4">
         <v>160</v>
       </c>
-      <c r="I77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="H78" t="s">
-        <v>162</v>
-      </c>
-      <c r="I78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="H79" t="s">
+      <c r="D98" s="4">
         <v>164</v>
       </c>
-      <c r="I79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82">
-        <v>255</v>
-      </c>
-      <c r="D82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C83">
-        <v>200</v>
-      </c>
-      <c r="D83">
-        <v>201</v>
-      </c>
-      <c r="E83">
-        <v>202</v>
-      </c>
-      <c r="F83">
-        <v>203</v>
-      </c>
-      <c r="G83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C84">
-        <v>204</v>
-      </c>
-      <c r="D84">
-        <v>205</v>
-      </c>
-      <c r="E84" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C85">
-        <v>206</v>
-      </c>
-      <c r="D85">
-        <v>207</v>
-      </c>
-      <c r="E85">
-        <v>208</v>
-      </c>
-      <c r="F85">
-        <v>209</v>
-      </c>
-      <c r="G85" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C86">
-        <v>210</v>
-      </c>
-      <c r="D86">
-        <v>-225</v>
-      </c>
-      <c r="E86" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C87">
-        <v>230</v>
-      </c>
-      <c r="D87">
-        <v>231</v>
-      </c>
-      <c r="E87">
-        <v>232</v>
-      </c>
-      <c r="F87">
-        <v>233</v>
-      </c>
-      <c r="G87">
-        <v>234</v>
-      </c>
-      <c r="H87">
-        <v>235</v>
-      </c>
-      <c r="I87" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C88">
-        <v>236</v>
-      </c>
-      <c r="D88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C89">
-        <v>239</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E98" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C90">
-        <v>240</v>
-      </c>
-      <c r="D90">
-        <v>241</v>
-      </c>
-      <c r="E90">
-        <v>242</v>
-      </c>
-      <c r="F90">
-        <v>243</v>
-      </c>
-      <c r="G90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C91">
-        <v>244</v>
-      </c>
-      <c r="D91">
-        <v>245</v>
-      </c>
-      <c r="E91">
-        <v>246</v>
-      </c>
-      <c r="F91">
-        <v>247</v>
-      </c>
-      <c r="G91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C92">
-        <v>248</v>
-      </c>
-      <c r="D92">
-        <v>249</v>
-      </c>
-      <c r="E92">
-        <v>250</v>
-      </c>
-      <c r="F92">
-        <v>251</v>
-      </c>
-      <c r="G92" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C94">
-        <v>10</v>
-      </c>
-      <c r="D94">
-        <v>14</v>
-      </c>
-      <c r="E94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C95">
-        <v>15</v>
-      </c>
-      <c r="D95">
-        <v>19</v>
-      </c>
-      <c r="E95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C96">
-        <v>20</v>
-      </c>
-      <c r="D96">
-        <v>24</v>
-      </c>
-      <c r="E96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C97" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C98">
-        <v>135</v>
-      </c>
-      <c r="D98">
-        <v>139</v>
-      </c>
-      <c r="E98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C99">
-        <v>140</v>
-      </c>
-      <c r="D99">
-        <v>144</v>
-      </c>
-      <c r="E99" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C100">
-        <v>145</v>
-      </c>
-      <c r="D100">
-        <v>149</v>
-      </c>
-      <c r="E100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C101">
-        <v>150</v>
-      </c>
-      <c r="D101">
-        <v>154</v>
-      </c>
-      <c r="E101" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C102">
-        <v>155</v>
-      </c>
-      <c r="D102">
-        <v>159</v>
-      </c>
-      <c r="E102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C103">
-        <v>160</v>
-      </c>
-      <c r="D103">
-        <v>164</v>
-      </c>
-      <c r="E103" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C104">
-        <v>165</v>
-      </c>
-      <c r="D104">
-        <v>169</v>
-      </c>
-      <c r="E104" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C105">
-        <v>170</v>
-      </c>
-      <c r="D105">
-        <v>174</v>
-      </c>
-      <c r="E105" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C107">
-        <v>300</v>
-      </c>
-      <c r="D107">
-        <v>-364</v>
-      </c>
-      <c r="E107" t="s">
-        <v>174</v>
-      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" s="38" customFormat="1">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+    </row>
+    <row r="100" spans="1:12" s="38" customFormat="1">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4">
+        <v>60</v>
+      </c>
+      <c r="C100" s="4">
+        <v>310</v>
+      </c>
+      <c r="D100" s="4">
+        <v>314</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" s="38" customFormat="1">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" s="38" customFormat="1">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4">
+        <v>70</v>
+      </c>
+      <c r="C102" s="4">
+        <v>360</v>
+      </c>
+      <c r="D102" s="4">
+        <v>364</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+    </row>
+    <row r="103" spans="1:12" s="38" customFormat="1">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" s="38" customFormat="1">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4">
+        <v>80</v>
+      </c>
+      <c r="C104" s="4">
+        <v>410</v>
+      </c>
+      <c r="D104" s="4">
+        <v>414</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4">
+        <v>800</v>
+      </c>
+      <c r="D106" s="4">
+        <v>-864</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
